--- a/biology/Zoologie/Cooperignathus/Cooperignathus.xlsx
+++ b/biology/Zoologie/Cooperignathus/Cooperignathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cooperignathus est un genre éteint de conodontes de la famille des Paracordylodontidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cooperignathus a été créé en 2003 par le paléontologue Yong Yi Zhen (d) dans une publication coécrite avec Ian G. Percival (d) et Barry Deane Webby (d)[1],[2].
-Ce genre n'est pas reconnu par Paleobiology Database                   (15 août 2022)[3] et est considéré comme incertain (non évalué) par l’IRMNG[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cooperignathus a été créé en 2003 par le paléontologue Yong Yi Zhen (d) dans une publication coécrite avec Ian G. Percival (d) et Barry Deane Webby (d),.
+Ce genre n'est pas reconnu par Paleobiology Database                   (15 août 2022) et est considéré comme incertain (non évalué) par l’IRMNG.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Cooperignathus, a été donné en l'honneur de Barry J. Cooper (d), géologue et paléontologue australien, qui a décrit les deux espèces actuellement présentes dans ce genre[2],[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Cooperignathus, a été donné en l'honneur de Barry J. Cooper (d), géologue et paléontologue australien, qui a décrit les deux espèces actuellement présentes dans ce genre,
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Yong Yi Zhen, Ian G. Percival et Barry D. Webby, « Early Ordovician conodonts from far western New South Wales, Australia », Records of the Australian Museum, Sydney, Australian Museum et inconnu, vol. 55, no 2,‎ 2003, p. 169-220 (ISSN 0067-1975 et 2201-4349, OCLC 1385608, DOI 10.3853/J.0067-1975.55.2003.1383, lire en ligne)</t>
         </is>
@@ -604,10 +622,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>†Cooperignathus aranda (Cooper, 1981)[2]
-†Cooperignathus nyinti (Cooper, 1981)[2] - espèce type</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>†Cooperignathus aranda (Cooper, 1981)
+†Cooperignathus nyinti (Cooper, 1981) - espèce type</t>
         </is>
       </c>
     </row>
